--- a/output/single_track_results/1C-1H_container_throughput_40_batch_size_20.xlsx
+++ b/output/single_track_results/1C-1H_container_throughput_40_batch_size_20.xlsx
@@ -858,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>20.27130484677204</v>
+        <v>5.685366892675725</v>
       </c>
       <c r="M2">
-        <v>30.28019914146041</v>
+        <v>15.1771393816703</v>
       </c>
       <c r="N2">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O2">
         <v>24</v>
@@ -882,10 +882,10 @@
         <v>138</v>
       </c>
       <c r="Q2">
-        <v>10.72806868491069</v>
+        <v>10.17611165615981</v>
       </c>
       <c r="R2">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -893,34 +893,34 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C3">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>19.8835571720144</v>
+        <v>5.333557172014398</v>
       </c>
       <c r="E3">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
       <c r="F3">
-        <v>20.14564304478236</v>
+        <v>5.568352775637893</v>
       </c>
       <c r="G3">
-        <v>20.14564304478236</v>
+        <v>5.568352775637893</v>
       </c>
       <c r="H3">
-        <v>20.27130484677204</v>
+        <v>5.685366892675725</v>
       </c>
       <c r="I3">
-        <v>20.22094284964792</v>
+        <v>5.627327693881246</v>
       </c>
       <c r="P3" t="s">
         <v>139</v>
       </c>
       <c r="Q3">
-        <v>0.3709428496479177</v>
+        <v>0.3273276938812462</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>20.59686961953543</v>
+        <v>6.176636168787668</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>20.73112823563175</v>
+        <v>6.32126750327135</v>
       </c>
       <c r="M4">
-        <v>30.31370778117076</v>
+        <v>15.21064802138065</v>
       </c>
       <c r="N4">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O4">
         <v>24</v>
@@ -952,10 +952,10 @@
         <v>138</v>
       </c>
       <c r="Q4">
-        <v>10.33586558541312</v>
+        <v>9.653039276370777</v>
       </c>
       <c r="R4">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -963,34 +963,34 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C5">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D5">
-        <v>19.91708443295745</v>
+        <v>5.367084432957451</v>
       </c>
       <c r="E5">
-        <v>20.59686961953543</v>
+        <v>6.176636168787668</v>
       </c>
       <c r="F5">
-        <v>20.57324249799682</v>
+        <v>6.141075442303252</v>
       </c>
       <c r="G5">
-        <v>20.57324249799682</v>
+        <v>6.141075442303252</v>
       </c>
       <c r="H5">
-        <v>20.73112823563175</v>
+        <v>6.32126750327135</v>
       </c>
       <c r="I5">
-        <v>20.63189660572943</v>
+        <v>6.20001654423201</v>
       </c>
       <c r="P5" t="s">
         <v>139</v>
       </c>
       <c r="Q5">
-        <v>0.7818966057294325</v>
+        <v>0.9000165442320105</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -998,7 +998,7 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>21.07163276158619</v>
+        <v>6.676527770259335</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>21.13296125397157</v>
+        <v>6.929034238340662</v>
       </c>
       <c r="M6">
-        <v>30.34710470944404</v>
+        <v>15.24404494965393</v>
       </c>
       <c r="N6">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O6">
         <v>24</v>
@@ -1022,10 +1022,10 @@
         <v>138</v>
       </c>
       <c r="Q6">
-        <v>9.861102443362363</v>
+        <v>9.15314767489911</v>
       </c>
       <c r="R6">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1033,34 +1033,34 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C7">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>19.95046095504073</v>
+        <v>5.400460955040732</v>
       </c>
       <c r="E7">
-        <v>21.07163276158619</v>
+        <v>6.676527770259335</v>
       </c>
       <c r="F7">
-        <v>21.04457994697528</v>
+        <v>6.595910902175264</v>
       </c>
       <c r="G7">
-        <v>21.04457994697528</v>
+        <v>6.595910902175264</v>
       </c>
       <c r="H7">
-        <v>21.13296125397157</v>
+        <v>6.929034238340662</v>
       </c>
       <c r="I7">
-        <v>21.11460719256836</v>
+        <v>6.656708707254339</v>
       </c>
       <c r="P7" t="s">
         <v>139</v>
       </c>
       <c r="Q7">
-        <v>1.264607192568356</v>
+        <v>1.356708707254339</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1068,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>21.66495805311072</v>
+        <v>7.226916699704923</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>21.70631899732818</v>
+        <v>7.396466123115142</v>
       </c>
       <c r="M8">
-        <v>30.38068954833654</v>
+        <v>15.27762978854643</v>
       </c>
       <c r="N8">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O8">
         <v>24</v>
@@ -1092,10 +1092,10 @@
         <v>138</v>
       </c>
       <c r="Q8">
-        <v>9.267777151837837</v>
+        <v>8.602758745453521</v>
       </c>
       <c r="R8">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1103,34 +1103,34 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C9">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>19.98406018089412</v>
+        <v>5.434060180894122</v>
       </c>
       <c r="E9">
-        <v>21.66495805311072</v>
+        <v>7.226916699704923</v>
       </c>
       <c r="F9">
-        <v>21.6354961143141</v>
+        <v>7.144229524821548</v>
       </c>
       <c r="G9">
-        <v>21.6354961143141</v>
+        <v>7.144229524821548</v>
       </c>
       <c r="H9">
-        <v>21.70631899732818</v>
+        <v>7.396466123115142</v>
       </c>
       <c r="I9">
-        <v>21.69853357550365</v>
+        <v>7.212673276977356</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
       </c>
       <c r="Q9">
-        <v>1.848533575503648</v>
+        <v>1.912673276977356</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1138,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>22.13789506172404</v>
+        <v>7.598295103830861</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.23634815767709</v>
+        <v>7.627213608783213</v>
       </c>
       <c r="M10">
-        <v>30.41426166928106</v>
+        <v>15.31120190949095</v>
       </c>
       <c r="N10">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O10">
         <v>24</v>
@@ -1162,10 +1162,10 @@
         <v>138</v>
       </c>
       <c r="Q10">
-        <v>8.794840143224519</v>
+        <v>8.231380341327583</v>
       </c>
       <c r="R10">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1173,34 +1173,34 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C11">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D11">
-        <v>20.01748701271221</v>
+        <v>5.467487012712209</v>
       </c>
       <c r="E11">
-        <v>22.13789506172404</v>
+        <v>7.598295103830861</v>
       </c>
       <c r="F11">
-        <v>22.04843706818363</v>
+        <v>7.564280941520928</v>
       </c>
       <c r="G11">
-        <v>22.04843706818363</v>
+        <v>7.564280941520928</v>
       </c>
       <c r="H11">
-        <v>22.23634815767709</v>
+        <v>7.627213608783213</v>
       </c>
       <c r="I11">
-        <v>22.09271837866664</v>
+        <v>7.605337296389994</v>
       </c>
       <c r="P11" t="s">
         <v>139</v>
       </c>
       <c r="Q11">
-        <v>2.242718378666638</v>
+        <v>2.305337296389994</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1208,34 +1208,34 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C12">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D12">
-        <v>20.05084610877982</v>
+        <v>5.500846108779815</v>
       </c>
       <c r="E12">
-        <v>22.66170842134082</v>
+        <v>7.930672906527395</v>
       </c>
       <c r="F12">
-        <v>22.60125750251516</v>
+        <v>7.883675813192204</v>
       </c>
       <c r="G12">
-        <v>22.60125750251516</v>
+        <v>7.883675813192204</v>
       </c>
       <c r="H12">
-        <v>22.81357933365898</v>
+        <v>8.177541527292036</v>
       </c>
       <c r="I12">
-        <v>22.65818113806927</v>
+        <v>7.942205726520542</v>
       </c>
       <c r="P12" t="s">
         <v>139</v>
       </c>
       <c r="Q12">
-        <v>2.808181138069269</v>
+        <v>2.642205726520542</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1243,7 +1243,7 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>22.66170842134082</v>
+        <v>7.930672906527395</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.81357933365898</v>
+        <v>8.177541527292036</v>
       </c>
       <c r="M13">
-        <v>30.44761468521159</v>
+        <v>15.34455492542147</v>
       </c>
       <c r="N13">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O13">
         <v>24</v>
@@ -1267,10 +1267,10 @@
         <v>138</v>
       </c>
       <c r="Q13">
-        <v>8.271026783607738</v>
+        <v>7.89900253863105</v>
       </c>
       <c r="R13">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1278,34 +1278,34 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C14">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D14">
-        <v>20.08420630777338</v>
+        <v>5.534206307773379</v>
       </c>
       <c r="E14">
-        <v>23.2290245945804</v>
+        <v>8.775900375343291</v>
       </c>
       <c r="F14">
-        <v>23.16859418996359</v>
+        <v>8.700501437729857</v>
       </c>
       <c r="G14">
-        <v>23.16859418996359</v>
+        <v>8.700501437729857</v>
       </c>
       <c r="H14">
-        <v>23.39295911042592</v>
+        <v>8.987276840150363</v>
       </c>
       <c r="I14">
-        <v>23.22061555910002</v>
+        <v>8.754481962059195</v>
       </c>
       <c r="P14" t="s">
         <v>139</v>
       </c>
       <c r="Q14">
-        <v>3.37061555910002</v>
+        <v>3.454481962059195</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1313,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <v>23.2290245945804</v>
+        <v>8.775900375343291</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.39295911042592</v>
+        <v>8.987276840150363</v>
       </c>
       <c r="M15">
-        <v>30.48101413094336</v>
+        <v>15.37795437115324</v>
       </c>
       <c r="N15">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O15">
         <v>24</v>
@@ -1337,10 +1337,10 @@
         <v>138</v>
       </c>
       <c r="Q15">
-        <v>7.703710610368159</v>
+        <v>7.053775069815154</v>
       </c>
       <c r="R15">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1348,34 +1348,34 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C16">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D16">
-        <v>20.11777505620848</v>
+        <v>5.567775056208476</v>
       </c>
       <c r="E16">
-        <v>23.92489256695974</v>
+        <v>9.215587540135481</v>
       </c>
       <c r="F16">
-        <v>23.84272703988056</v>
+        <v>9.152589234355359</v>
       </c>
       <c r="G16">
-        <v>23.84272703988056</v>
+        <v>9.152589234355359</v>
       </c>
       <c r="H16">
-        <v>24.05227206560626</v>
+        <v>9.278961841610551</v>
       </c>
       <c r="I16">
-        <v>23.88833560624537</v>
+        <v>9.207097976951518</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
       </c>
       <c r="Q16">
-        <v>4.038335606245369</v>
+        <v>3.907097976951518</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1383,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>23.92489256695974</v>
+        <v>9.215587540135481</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.05227206560626</v>
+        <v>9.278961841610551</v>
       </c>
       <c r="M17">
-        <v>30.51453329143733</v>
+        <v>15.41147353164721</v>
       </c>
       <c r="N17">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O17">
         <v>24</v>
@@ -1407,10 +1407,10 @@
         <v>138</v>
       </c>
       <c r="Q17">
-        <v>7.007842637988816</v>
+        <v>6.614087905022965</v>
       </c>
       <c r="R17">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1418,34 +1418,34 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C18">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D18">
-        <v>20.15127609121719</v>
+        <v>5.601276091217189</v>
       </c>
       <c r="E18">
-        <v>24.38179633505553</v>
+        <v>9.419953272585575</v>
       </c>
       <c r="F18">
-        <v>24.31069723091223</v>
+        <v>9.398828744486659</v>
       </c>
       <c r="G18">
-        <v>24.31069723091223</v>
+        <v>9.398828744486659</v>
       </c>
       <c r="H18">
-        <v>24.5742272982332</v>
+        <v>9.574024427026837</v>
       </c>
       <c r="I18">
-        <v>24.37489071739782</v>
+        <v>9.467040455190002</v>
       </c>
       <c r="P18" t="s">
         <v>139</v>
       </c>
       <c r="Q18">
-        <v>4.524890717397817</v>
+        <v>4.167040455190002</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1453,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>24.38179633505553</v>
+        <v>9.419953272585575</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>24.5742272982332</v>
+        <v>9.574024427026837</v>
       </c>
       <c r="M19">
-        <v>30.54792613499493</v>
+        <v>15.44486637520482</v>
       </c>
       <c r="N19">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O19">
         <v>24</v>
@@ -1477,10 +1477,10 @@
         <v>138</v>
       </c>
       <c r="Q19">
-        <v>6.550938869893027</v>
+        <v>6.40972217257287</v>
       </c>
       <c r="R19">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>25.04073403043957</v>
+        <v>9.959847940644208</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.14018565334306</v>
+        <v>10.20031104887207</v>
       </c>
       <c r="M20">
-        <v>30.58129622161958</v>
+        <v>15.47823646182946</v>
       </c>
       <c r="N20">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -1512,10 +1512,10 @@
         <v>138</v>
       </c>
       <c r="Q20">
-        <v>5.892001174508991</v>
+        <v>5.869827504514237</v>
       </c>
       <c r="R20">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1523,34 +1523,34 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C21">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D21">
-        <v>20.18481212782461</v>
+        <v>5.634879734484961</v>
       </c>
       <c r="E21">
-        <v>25.04073403043957</v>
+        <v>9.959847940644208</v>
       </c>
       <c r="F21">
-        <v>24.95212316349349</v>
+        <v>9.938608039565624</v>
       </c>
       <c r="G21">
-        <v>24.95212316349349</v>
+        <v>9.938608039565624</v>
       </c>
       <c r="H21">
-        <v>25.14018565334306</v>
+        <v>10.20031104887207</v>
       </c>
       <c r="I21">
-        <v>25.01265309243663</v>
+        <v>9.997976145229648</v>
       </c>
       <c r="P21" t="s">
         <v>139</v>
       </c>
       <c r="Q21">
-        <v>5.162653092436624</v>
+        <v>4.697976145229648</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1558,34 +1558,34 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C22">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D22">
-        <v>20.21825060959605</v>
+        <v>5.668318216256408</v>
       </c>
       <c r="E22">
-        <v>25.43030700625944</v>
+        <v>10.49144150031413</v>
       </c>
       <c r="F22">
-        <v>25.39542089374123</v>
+        <v>10.41698662305186</v>
       </c>
       <c r="G22">
-        <v>25.39542089374123</v>
+        <v>10.41698662305186</v>
       </c>
       <c r="H22">
-        <v>25.49522906514527</v>
+        <v>10.66751709776037</v>
       </c>
       <c r="I22">
-        <v>25.45488432260219</v>
+        <v>10.48435486538519</v>
       </c>
       <c r="P22" t="s">
         <v>139</v>
       </c>
       <c r="Q22">
-        <v>5.604884322602185</v>
+        <v>5.184354865385191</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1593,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>25.43030700625944</v>
+        <v>10.49144150031413</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.49522906514527</v>
+        <v>10.66751709776037</v>
       </c>
       <c r="M23">
-        <v>30.61488942001974</v>
+        <v>15.51182966022962</v>
       </c>
       <c r="N23">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O23">
         <v>24</v>
@@ -1617,10 +1617,10 @@
         <v>138</v>
       </c>
       <c r="Q23">
-        <v>5.502428198689113</v>
+        <v>5.338233944844317</v>
       </c>
       <c r="R23">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>25.98920975374289</v>
+        <v>11.11582678869533</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>26.08057621460316</v>
+        <v>11.2500837575534</v>
       </c>
       <c r="M24">
-        <v>30.64838137643455</v>
+        <v>15.54532161664444</v>
       </c>
       <c r="N24">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O24">
         <v>24</v>
@@ -1652,10 +1652,10 @@
         <v>138</v>
       </c>
       <c r="Q24">
-        <v>4.943525451205662</v>
+        <v>4.713848656463114</v>
       </c>
       <c r="R24">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1663,34 +1663,34 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C25">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D25">
-        <v>20.2518143331139</v>
+        <v>5.701881939774256</v>
       </c>
       <c r="E25">
-        <v>25.98920975374289</v>
+        <v>11.11582678869533</v>
       </c>
       <c r="F25">
-        <v>25.92554065384101</v>
+        <v>11.0419924953781</v>
       </c>
       <c r="G25">
-        <v>25.92554065384101</v>
+        <v>11.0419924953781</v>
       </c>
       <c r="H25">
-        <v>26.08057621460316</v>
+        <v>11.2500837575534</v>
       </c>
       <c r="I25">
-        <v>25.99533518301087</v>
+        <v>11.11337742199361</v>
       </c>
       <c r="P25" t="s">
         <v>139</v>
       </c>
       <c r="Q25">
-        <v>6.145335183010868</v>
+        <v>5.813377421993613</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1698,34 +1698,34 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C26">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D26">
-        <v>20.28531947748956</v>
+        <v>5.735454636135453</v>
       </c>
       <c r="E26">
-        <v>26.48922705540469</v>
+        <v>11.7390428897261</v>
       </c>
       <c r="F26">
-        <v>26.43557088405366</v>
+        <v>11.66620116570629</v>
       </c>
       <c r="G26">
-        <v>26.43557088405366</v>
+        <v>11.66620116570629</v>
       </c>
       <c r="H26">
-        <v>26.70713879284071</v>
+        <v>11.82711544717281</v>
       </c>
       <c r="I26">
-        <v>26.50149236003718</v>
+        <v>11.73186196793338</v>
       </c>
       <c r="P26" t="s">
         <v>139</v>
       </c>
       <c r="Q26">
-        <v>6.651492360037178</v>
+        <v>6.43186196793338</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1733,7 +1733,7 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <v>26.48922705540469</v>
+        <v>11.7390428897261</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>26.70713879284071</v>
+        <v>11.82711544717281</v>
       </c>
       <c r="M27">
-        <v>30.68184600727519</v>
+        <v>15.57878624748508</v>
       </c>
       <c r="N27">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O27">
         <v>24</v>
@@ -1757,10 +1757,10 @@
         <v>138</v>
       </c>
       <c r="Q27">
-        <v>4.44350814954387</v>
+        <v>4.090632555432343</v>
       </c>
       <c r="R27">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1768,34 +1768,34 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C28">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D28">
-        <v>20.3188131864188</v>
+        <v>5.768948345064691</v>
       </c>
       <c r="E28">
-        <v>27.09767842895721</v>
+        <v>12.1598974805326</v>
       </c>
       <c r="F28">
-        <v>27.02384355469455</v>
+        <v>12.11351611494824</v>
       </c>
       <c r="G28">
-        <v>27.02384355469455</v>
+        <v>12.11351611494824</v>
       </c>
       <c r="H28">
-        <v>27.29071190165063</v>
+        <v>12.37835351392554</v>
       </c>
       <c r="I28">
-        <v>27.07906055210947</v>
+        <v>12.17311946107188</v>
       </c>
       <c r="P28" t="s">
         <v>139</v>
       </c>
       <c r="Q28">
-        <v>7.229060552109473</v>
+        <v>6.873119461071879</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1803,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>27.09767842895721</v>
+        <v>12.1598974805326</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>27.29071190165063</v>
+        <v>12.37835351392554</v>
       </c>
       <c r="M29">
-        <v>30.71539729044861</v>
+        <v>15.61233753065849</v>
       </c>
       <c r="N29">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -1827,10 +1827,10 @@
         <v>138</v>
       </c>
       <c r="Q29">
-        <v>3.835056775991344</v>
+        <v>3.669777964625849</v>
       </c>
       <c r="R29">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1838,7 +1838,7 @@
         <v>46</v>
       </c>
       <c r="F30">
-        <v>27.50652026486559</v>
+        <v>12.66255615706619</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>27.61992061974068</v>
+        <v>12.75928802028</v>
       </c>
       <c r="M30">
-        <v>30.74895492850354</v>
+        <v>15.64589516871343</v>
       </c>
       <c r="N30">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O30">
         <v>24</v>
@@ -1862,10 +1862,10 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>3.426214940082971</v>
+        <v>3.167119288092254</v>
       </c>
       <c r="R30">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1873,34 +1873,34 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C31">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D31">
-        <v>20.35234223415108</v>
+        <v>5.802477392796973</v>
       </c>
       <c r="E31">
-        <v>27.50652026486559</v>
+        <v>12.66255615706619</v>
       </c>
       <c r="F31">
-        <v>27.44891979505121</v>
+        <v>12.60864327558363</v>
       </c>
       <c r="G31">
-        <v>27.44891979505121</v>
+        <v>12.60864327558363</v>
       </c>
       <c r="H31">
-        <v>27.61992061974068</v>
+        <v>12.75928802028</v>
       </c>
       <c r="I31">
-        <v>27.52237016190567</v>
+        <v>12.68733536115845</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
       </c>
       <c r="Q31">
-        <v>7.672370161905668</v>
+        <v>7.387335361158446</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1908,34 +1908,34 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C32">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D32">
-        <v>20.38573887256099</v>
+        <v>5.835823455125767</v>
       </c>
       <c r="E32">
-        <v>27.9181098701779</v>
+        <v>13.14237514599396</v>
       </c>
       <c r="F32">
-        <v>27.88015832239837</v>
+        <v>13.0593601184912</v>
       </c>
       <c r="G32">
-        <v>27.88015832239837</v>
+        <v>13.0593601184912</v>
       </c>
       <c r="H32">
-        <v>27.98121852806414</v>
+        <v>13.16548021322099</v>
       </c>
       <c r="I32">
-        <v>27.94988981779849</v>
+        <v>13.13288818746469</v>
       </c>
       <c r="P32" t="s">
         <v>139</v>
       </c>
       <c r="Q32">
-        <v>8.099889817798484</v>
+        <v>7.832888187464694</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1943,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="F33">
-        <v>27.9181098701779</v>
+        <v>13.14237514599396</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>27.98121852806414</v>
+        <v>13.16548021322099</v>
       </c>
       <c r="M33">
-        <v>30.78234115347976</v>
+        <v>15.67928139368964</v>
       </c>
       <c r="N33">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O33">
         <v>24</v>
@@ -1967,10 +1967,10 @@
         <v>138</v>
       </c>
       <c r="Q33">
-        <v>3.01462533477066</v>
+        <v>2.68730029916448</v>
       </c>
       <c r="R33">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1978,34 +1978,34 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C34">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D34">
-        <v>20.41915259143977</v>
+        <v>5.86922009353567</v>
       </c>
       <c r="E34">
-        <v>28.37657262483668</v>
+        <v>13.42385104931649</v>
       </c>
       <c r="F34">
-        <v>28.28911674259595</v>
+        <v>13.37104322751226</v>
       </c>
       <c r="G34">
-        <v>28.28911674259595</v>
+        <v>13.37104322751226</v>
       </c>
       <c r="H34">
-        <v>28.39676495963606</v>
+        <v>13.55119510700325</v>
       </c>
       <c r="I34">
-        <v>28.33215939340928</v>
+        <v>13.41280257641928</v>
       </c>
       <c r="P34" t="s">
         <v>139</v>
       </c>
       <c r="Q34">
-        <v>8.482159393409283</v>
+        <v>8.112802576419277</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <v>28.37657262483668</v>
+        <v>13.42385104931649</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>28.39676495963606</v>
+        <v>13.55119510700325</v>
       </c>
       <c r="M35">
-        <v>30.81570141203926</v>
+        <v>15.71264165224915</v>
       </c>
       <c r="N35">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O35">
         <v>24</v>
@@ -2037,10 +2037,10 @@
         <v>138</v>
       </c>
       <c r="Q35">
-        <v>2.556162580111877</v>
+        <v>2.405824395841957</v>
       </c>
       <c r="R35">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2048,34 +2048,34 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C36">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D36">
-        <v>20.45250808921113</v>
+        <v>5.902633812414448</v>
       </c>
       <c r="E36">
-        <v>28.95442635531528</v>
+        <v>13.92945586731634</v>
       </c>
       <c r="F36">
-        <v>28.86461530543506</v>
+        <v>13.86257195732727</v>
       </c>
       <c r="G36">
-        <v>28.86461530543506</v>
+        <v>13.86257195732727</v>
       </c>
       <c r="H36">
-        <v>29.2112017626111</v>
+        <v>14.07677720622874</v>
       </c>
       <c r="I36">
-        <v>28.92307202827477</v>
+        <v>13.91738953270565</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>9.073072028274769</v>
+        <v>8.617389532705655</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="F37">
-        <v>28.95442635531528</v>
+        <v>13.92945586731634</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>29.2112017626111</v>
+        <v>14.07677720622874</v>
       </c>
       <c r="M37">
-        <v>30.84915448181215</v>
+        <v>15.74609472202204</v>
       </c>
       <c r="N37">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O37">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>138</v>
       </c>
       <c r="Q37">
-        <v>1.978308849633276</v>
+        <v>1.900219577842106</v>
       </c>
       <c r="R37">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2118,34 +2118,34 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C38">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D38">
-        <v>20.48590608667957</v>
+        <v>5.936031809882882</v>
       </c>
       <c r="E38">
-        <v>29.50079547507981</v>
+        <v>14.5298782322717</v>
       </c>
       <c r="F38">
-        <v>29.4301058075195</v>
+        <v>14.46991184707923</v>
       </c>
       <c r="G38">
-        <v>29.4301058075195</v>
+        <v>14.46991184707923</v>
       </c>
       <c r="H38">
-        <v>29.55772772919434</v>
+        <v>14.55268639396035</v>
       </c>
       <c r="I38">
-        <v>29.49791240734848</v>
+        <v>14.53842570944237</v>
       </c>
       <c r="P38" t="s">
         <v>139</v>
       </c>
       <c r="Q38">
-        <v>9.647912407348475</v>
+        <v>9.238425709442375</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2153,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="F39">
-        <v>29.50079547507981</v>
+        <v>14.5298782322717</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>29.55772772919434</v>
+        <v>14.55268639396035</v>
       </c>
       <c r="M39">
-        <v>30.8826054758741</v>
+        <v>15.77954571608399</v>
       </c>
       <c r="N39">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O39">
         <v>24</v>
@@ -2177,10 +2177,10 @@
         <v>138</v>
       </c>
       <c r="Q39">
-        <v>1.431939729868745</v>
+        <v>1.299797212886741</v>
       </c>
       <c r="R39">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2188,34 +2188,34 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="C40">
-        <v>19.85</v>
+        <v>5.3</v>
       </c>
       <c r="D40">
-        <v>20.51926747596551</v>
+        <v>5.969393199168829</v>
       </c>
       <c r="E40">
-        <v>30.08792352385673</v>
+        <v>14.74611881578478</v>
       </c>
       <c r="F40">
-        <v>30.02737731936144</v>
+        <v>14.6726515178527</v>
       </c>
       <c r="G40">
-        <v>30.02737731936144</v>
+        <v>14.6726515178527</v>
       </c>
       <c r="H40">
-        <v>30.15112552525339</v>
+        <v>14.88508330133282</v>
       </c>
       <c r="I40">
-        <v>30.09098527242184</v>
+        <v>14.7369850057222</v>
       </c>
       <c r="P40" t="s">
         <v>139</v>
       </c>
       <c r="Q40">
-        <v>10.24098527242184</v>
+        <v>9.436985005722203</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2223,7 +2223,7 @@
         <v>57</v>
       </c>
       <c r="F41">
-        <v>30.08792352385673</v>
+        <v>14.74611881578478</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>30.15112552525339</v>
+        <v>14.88508330133282</v>
       </c>
       <c r="M41">
-        <v>30.91606853828189</v>
+        <v>15.81300877849178</v>
       </c>
       <c r="N41">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="O41">
         <v>24</v>
@@ -2247,10 +2247,10 @@
         <v>138</v>
       </c>
       <c r="Q41">
-        <v>0.8448116810918265</v>
+        <v>1.083556629373668</v>
       </c>
       <c r="R41">
-        <v>20.20466652003786</v>
+        <v>5.653563788998639</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2258,22 +2258,22 @@
         <v>58</v>
       </c>
       <c r="F42">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
       <c r="J42">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K42">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L42">
-        <v>37.81927755733558</v>
+        <v>40.76885529190773</v>
       </c>
       <c r="M42">
-        <v>47.6515745697826</v>
+        <v>49.74269610361696</v>
       </c>
       <c r="N42">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O42">
         <v>48</v>
@@ -2282,10 +2282,10 @@
         <v>138</v>
       </c>
       <c r="Q42">
-        <v>10.655174338911</v>
+        <v>9.857181092337733</v>
       </c>
       <c r="R42">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2293,34 +2293,34 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C43">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D43">
-        <v>37.31360249896036</v>
+        <v>40.38360249896036</v>
       </c>
       <c r="E43">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
       <c r="F43">
-        <v>37.5724479345006</v>
+        <v>40.50361178809101</v>
       </c>
       <c r="G43">
-        <v>37.5724479345006</v>
+        <v>40.50361178809101</v>
       </c>
       <c r="H43">
-        <v>37.81927755733558</v>
+        <v>40.76885529190773</v>
       </c>
       <c r="I43">
-        <v>37.62456344107456</v>
+        <v>40.55676672666598</v>
       </c>
       <c r="P43" t="s">
         <v>139</v>
       </c>
       <c r="Q43">
-        <v>0.3445634410745626</v>
+        <v>0.2067667266659754</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2328,22 +2328,22 @@
         <v>60</v>
       </c>
       <c r="F44">
-        <v>38.33937980104251</v>
+        <v>41.0735648895495</v>
       </c>
       <c r="J44">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K44">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L44">
-        <v>38.45881171413526</v>
+        <v>41.13283847899375</v>
       </c>
       <c r="M44">
-        <v>47.68497112408465</v>
+        <v>49.77609265791902</v>
       </c>
       <c r="N44">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O44">
         <v>48</v>
@@ -2352,10 +2352,10 @@
         <v>138</v>
       </c>
       <c r="Q44">
-        <v>9.964810340558572</v>
+        <v>9.321746785885942</v>
       </c>
       <c r="R44">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2363,34 +2363,34 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C45">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D45">
-        <v>37.34719315645564</v>
+        <v>40.41719315645564</v>
       </c>
       <c r="E45">
-        <v>38.33937980104251</v>
+        <v>41.0735648895495</v>
       </c>
       <c r="F45">
-        <v>38.25493699569276</v>
+        <v>41.02349621323475</v>
       </c>
       <c r="G45">
-        <v>38.25493699569276</v>
+        <v>41.02349621323475</v>
       </c>
       <c r="H45">
-        <v>38.45881171413526</v>
+        <v>41.13283847899375</v>
       </c>
       <c r="I45">
-        <v>38.32930563738324</v>
+        <v>41.09737221267145</v>
       </c>
       <c r="P45" t="s">
         <v>139</v>
       </c>
       <c r="Q45">
-        <v>1.049305637383242</v>
+        <v>0.7473722126714506</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2398,22 +2398,22 @@
         <v>62</v>
       </c>
       <c r="F46">
-        <v>38.96764775591487</v>
+        <v>41.29618430117328</v>
       </c>
       <c r="J46">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K46">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L46">
-        <v>39.0288397909799</v>
+        <v>41.51288943547222</v>
       </c>
       <c r="M46">
-        <v>47.71831103087207</v>
+        <v>49.80943256470643</v>
       </c>
       <c r="N46">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O46">
         <v>48</v>
@@ -2422,10 +2422,10 @@
         <v>138</v>
       </c>
       <c r="Q46">
-        <v>9.336542385686215</v>
+        <v>9.099127374262167</v>
       </c>
       <c r="R46">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2433,34 +2433,34 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C47">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D47">
-        <v>37.38057268731969</v>
+        <v>40.45057268731969</v>
       </c>
       <c r="E47">
-        <v>38.96764775591487</v>
+        <v>41.29618430117328</v>
       </c>
       <c r="F47">
-        <v>38.89377798368005</v>
+        <v>41.2546213588056</v>
       </c>
       <c r="G47">
-        <v>38.89377798368005</v>
+        <v>41.2546213588056</v>
       </c>
       <c r="H47">
-        <v>39.0288397909799</v>
+        <v>41.51288943547222</v>
       </c>
       <c r="I47">
-        <v>38.9408882300041</v>
+        <v>41.30351015981118</v>
       </c>
       <c r="P47" t="s">
         <v>139</v>
       </c>
       <c r="Q47">
-        <v>1.660888230004097</v>
+        <v>0.9535101598111808</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2468,22 +2468,22 @@
         <v>64</v>
       </c>
       <c r="F48">
-        <v>39.37900898450452</v>
+        <v>41.85307288748932</v>
       </c>
       <c r="J48">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K48">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L48">
-        <v>39.59791246012254</v>
+        <v>42.06737671498875</v>
       </c>
       <c r="M48">
-        <v>47.75169801136883</v>
+        <v>49.84281954520319</v>
       </c>
       <c r="N48">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O48">
         <v>48</v>
@@ -2492,10 +2492,10 @@
         <v>138</v>
       </c>
       <c r="Q48">
-        <v>8.925181157096567</v>
+        <v>8.542238787946125</v>
       </c>
       <c r="R48">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2503,34 +2503,34 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C49">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D49">
-        <v>37.41404092096565</v>
+        <v>40.48404092096565</v>
       </c>
       <c r="E49">
-        <v>39.37900898450452</v>
+        <v>41.85307288748932</v>
       </c>
       <c r="F49">
-        <v>39.29762473191167</v>
+        <v>41.80383318939639</v>
       </c>
       <c r="G49">
-        <v>39.29762473191167</v>
+        <v>41.80383318939639</v>
       </c>
       <c r="H49">
-        <v>39.59791246012254</v>
+        <v>42.06737671498875</v>
       </c>
       <c r="I49">
-        <v>39.36005426256665</v>
+        <v>41.85985849858235</v>
       </c>
       <c r="P49" t="s">
         <v>139</v>
       </c>
       <c r="Q49">
-        <v>2.080054262566648</v>
+        <v>1.509858498582346</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2538,22 +2538,22 @@
         <v>66</v>
       </c>
       <c r="F50">
-        <v>40.05932458883554</v>
+        <v>42.34283359318193</v>
       </c>
       <c r="J50">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K50">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L50">
-        <v>40.09984320859934</v>
+        <v>42.54185636836966</v>
       </c>
       <c r="M50">
-        <v>47.7851225285775</v>
+        <v>49.87624406241186</v>
       </c>
       <c r="N50">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O50">
         <v>48</v>
@@ -2562,10 +2562,10 @@
         <v>138</v>
       </c>
       <c r="Q50">
-        <v>8.244865552765546</v>
+        <v>8.052478082253515</v>
       </c>
       <c r="R50">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -2573,34 +2573,34 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C51">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D51">
-        <v>37.44743362854876</v>
+        <v>40.51743362854876</v>
       </c>
       <c r="E51">
-        <v>40.05932458883554</v>
+        <v>42.34283359318193</v>
       </c>
       <c r="F51">
-        <v>40.04251339191509</v>
+        <v>42.28810110262469</v>
       </c>
       <c r="G51">
-        <v>40.04251339191509</v>
+        <v>42.28810110262469</v>
       </c>
       <c r="H51">
-        <v>40.09984320859934</v>
+        <v>42.54185636836966</v>
       </c>
       <c r="I51">
-        <v>40.09731585017914</v>
+        <v>42.34476295802879</v>
       </c>
       <c r="P51" t="s">
         <v>139</v>
       </c>
       <c r="Q51">
-        <v>2.817315850179142</v>
+        <v>1.994762958028787</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2608,34 +2608,34 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C52">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D52">
-        <v>37.48087836196336</v>
+        <v>40.55104065878314</v>
       </c>
       <c r="E52">
-        <v>40.26985616419383</v>
+        <v>42.89662611878109</v>
       </c>
       <c r="F52">
-        <v>40.24047285420305</v>
+        <v>42.82794719028856</v>
       </c>
       <c r="G52">
-        <v>40.24047285420305</v>
+        <v>42.82794719028856</v>
       </c>
       <c r="H52">
-        <v>40.31811008768268</v>
+        <v>43.03189851796104</v>
       </c>
       <c r="I52">
-        <v>40.29793366544099</v>
+        <v>42.89155374030605</v>
       </c>
       <c r="P52" t="s">
         <v>139</v>
       </c>
       <c r="Q52">
-        <v>3.017933665440985</v>
+        <v>2.54155374030605</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2643,22 +2643,22 @@
         <v>69</v>
       </c>
       <c r="F53">
-        <v>40.26985616419383</v>
+        <v>42.89662611878109</v>
       </c>
       <c r="J53">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K53">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L53">
-        <v>40.31811008768268</v>
+        <v>43.03189851796104</v>
       </c>
       <c r="M53">
-        <v>47.81869595995028</v>
+        <v>49.90981749378464</v>
       </c>
       <c r="N53">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="Q53">
-        <v>8.03433397740725</v>
+        <v>7.498685556654358</v>
       </c>
       <c r="R53">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2678,34 +2678,34 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C54">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D54">
-        <v>37.51422798290779</v>
+        <v>40.58459178950591</v>
       </c>
       <c r="E54">
-        <v>40.8100670675174</v>
+        <v>43.39948540361048</v>
       </c>
       <c r="F54">
-        <v>40.7230253280028</v>
+        <v>43.33865251745956</v>
       </c>
       <c r="G54">
-        <v>40.7230253280028</v>
+        <v>43.33865251745956</v>
       </c>
       <c r="H54">
-        <v>40.85511093752904</v>
+        <v>43.54917678464021</v>
       </c>
       <c r="I54">
-        <v>40.80109409243803</v>
+        <v>43.41255225174369</v>
       </c>
       <c r="P54" t="s">
         <v>139</v>
       </c>
       <c r="Q54">
-        <v>3.521094092438027</v>
+        <v>3.062552251743689</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2713,22 +2713,22 @@
         <v>71</v>
       </c>
       <c r="F55">
-        <v>40.8100670675174</v>
+        <v>43.39948540361048</v>
       </c>
       <c r="J55">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K55">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L55">
-        <v>40.85511093752904</v>
+        <v>43.54917678464021</v>
       </c>
       <c r="M55">
-        <v>47.8522978735903</v>
+        <v>49.94341940742466</v>
       </c>
       <c r="N55">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O55">
         <v>48</v>
@@ -2737,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="Q55">
-        <v>7.494123074083682</v>
+        <v>6.99582627182496</v>
       </c>
       <c r="R55">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -2748,34 +2748,34 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C56">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D56">
-        <v>37.54766658655195</v>
+        <v>40.61805151405239</v>
       </c>
       <c r="E56">
-        <v>41.34340848028767</v>
+        <v>43.88022358197374</v>
       </c>
       <c r="F56">
-        <v>41.31416528253654</v>
+        <v>43.82774044004466</v>
       </c>
       <c r="G56">
-        <v>41.31416528253654</v>
+        <v>43.82774044004466</v>
       </c>
       <c r="H56">
-        <v>41.59636770208451</v>
+        <v>44.12331933979547</v>
       </c>
       <c r="I56">
-        <v>41.37399585085481</v>
+        <v>43.893675692851</v>
       </c>
       <c r="P56" t="s">
         <v>139</v>
       </c>
       <c r="Q56">
-        <v>4.09399585085481</v>
+        <v>3.543675692850996</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -2783,22 +2783,22 @@
         <v>73</v>
       </c>
       <c r="F57">
-        <v>41.34340848028767</v>
+        <v>43.88022358197374</v>
       </c>
       <c r="J57">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K57">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L57">
-        <v>41.59636770208451</v>
+        <v>44.12331933979547</v>
       </c>
       <c r="M57">
-        <v>47.88570874164383</v>
+        <v>49.97683027547819</v>
       </c>
       <c r="N57">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O57">
         <v>48</v>
@@ -2807,10 +2807,10 @@
         <v>138</v>
       </c>
       <c r="Q57">
-        <v>6.960781661313412</v>
+        <v>6.515088093461699</v>
       </c>
       <c r="R57">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -2818,34 +2818,34 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C58">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D58">
-        <v>37.58127361678633</v>
+        <v>40.65150234946516</v>
       </c>
       <c r="E58">
-        <v>41.96318676527403</v>
+        <v>44.56836343442869</v>
       </c>
       <c r="F58">
-        <v>41.93822497294054</v>
+        <v>44.47497905534044</v>
       </c>
       <c r="G58">
-        <v>41.93822497294054</v>
+        <v>44.47497905534044</v>
       </c>
       <c r="H58">
-        <v>42.06763562587901</v>
+        <v>44.58984906952464</v>
       </c>
       <c r="I58">
-        <v>41.99268875709812</v>
+        <v>44.52975987029454</v>
       </c>
       <c r="P58" t="s">
         <v>139</v>
       </c>
       <c r="Q58">
-        <v>4.712688757098114</v>
+        <v>4.179759870294539</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -2853,22 +2853,22 @@
         <v>75</v>
       </c>
       <c r="F59">
-        <v>41.96318676527403</v>
+        <v>44.56836343442869</v>
       </c>
       <c r="J59">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K59">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L59">
-        <v>42.06763562587901</v>
+        <v>44.58984906952464</v>
       </c>
       <c r="M59">
-        <v>47.919220264349</v>
+        <v>50.01034179818336</v>
       </c>
       <c r="N59">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O59">
         <v>48</v>
@@ -2877,10 +2877,10 @@
         <v>138</v>
       </c>
       <c r="Q59">
-        <v>6.341003376327052</v>
+        <v>5.826948241006754</v>
       </c>
       <c r="R59">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -2888,34 +2888,34 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C60">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D60">
-        <v>37.61472445219911</v>
+        <v>40.6851016043654</v>
       </c>
       <c r="E60">
-        <v>42.44288402817959</v>
+        <v>44.8613593901206</v>
       </c>
       <c r="F60">
-        <v>42.36681540363023</v>
+        <v>44.82925810838271</v>
       </c>
       <c r="G60">
-        <v>42.36681540363023</v>
+        <v>44.82925810838271</v>
       </c>
       <c r="H60">
-        <v>42.6889332663029</v>
+        <v>44.8881421459771</v>
       </c>
       <c r="I60">
-        <v>42.4300179847817</v>
+        <v>44.88842820883585</v>
       </c>
       <c r="P60" t="s">
         <v>139</v>
       </c>
       <c r="Q60">
-        <v>5.150017984781698</v>
+        <v>4.538428208835853</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -2923,22 +2923,22 @@
         <v>77</v>
       </c>
       <c r="F61">
-        <v>42.44288402817959</v>
+        <v>44.8613593901206</v>
       </c>
       <c r="J61">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K61">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L61">
-        <v>42.6889332663029</v>
+        <v>44.8881421459771</v>
       </c>
       <c r="M61">
-        <v>47.95266461945577</v>
+        <v>50.04378615329013</v>
       </c>
       <c r="N61">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O61">
         <v>48</v>
@@ -2947,10 +2947,10 @@
         <v>138</v>
       </c>
       <c r="Q61">
-        <v>5.861306113421492</v>
+        <v>5.533952285314847</v>
       </c>
       <c r="R61">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -2958,34 +2958,34 @@
         <v>78</v>
       </c>
       <c r="B62">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C62">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D62">
-        <v>37.64832370709934</v>
+        <v>40.71871144400137</v>
       </c>
       <c r="E62">
-        <v>43.15328485983669</v>
+        <v>45.30398799282737</v>
       </c>
       <c r="F62">
-        <v>43.06052834423513</v>
+        <v>45.24559874938167</v>
       </c>
       <c r="G62">
-        <v>43.06052834423513</v>
+        <v>45.24559874938167</v>
       </c>
       <c r="H62">
-        <v>43.34476516089815</v>
+        <v>45.53190584337612</v>
       </c>
       <c r="I62">
-        <v>43.11788958591708</v>
+        <v>45.29034810231693</v>
       </c>
       <c r="P62" t="s">
         <v>139</v>
       </c>
       <c r="Q62">
-        <v>5.837889585917075</v>
+        <v>4.940348102316925</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -2993,22 +2993,22 @@
         <v>79</v>
       </c>
       <c r="F63">
-        <v>43.15328485983669</v>
+        <v>45.30398799282737</v>
       </c>
       <c r="J63">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K63">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L63">
-        <v>43.34476516089815</v>
+        <v>45.53190584337612</v>
       </c>
       <c r="M63">
-        <v>47.98627049436888</v>
+        <v>50.07739202820324</v>
       </c>
       <c r="N63">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O63">
         <v>48</v>
@@ -3017,10 +3017,10 @@
         <v>138</v>
       </c>
       <c r="Q63">
-        <v>5.150905281764395</v>
+        <v>5.091323682608078</v>
       </c>
       <c r="R63">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3028,34 +3028,34 @@
         <v>80</v>
       </c>
       <c r="B64">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C64">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D64">
-        <v>37.68193354673532</v>
+        <v>40.75219915742454</v>
       </c>
       <c r="E64">
-        <v>43.61282000257799</v>
+        <v>45.64565093149698</v>
       </c>
       <c r="F64">
-        <v>43.56825338920665</v>
+        <v>45.57550134894164</v>
       </c>
       <c r="G64">
-        <v>43.56825338920665</v>
+        <v>45.57550134894164</v>
       </c>
       <c r="H64">
-        <v>43.7411406556034</v>
+        <v>45.70737456207696</v>
       </c>
       <c r="I64">
-        <v>43.61312313846594</v>
+        <v>45.62502578073422</v>
       </c>
       <c r="P64" t="s">
         <v>139</v>
       </c>
       <c r="Q64">
-        <v>6.333123138465936</v>
+        <v>5.275025780734218</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3063,22 +3063,22 @@
         <v>81</v>
       </c>
       <c r="F65">
-        <v>43.61282000257799</v>
+        <v>45.64565093149698</v>
       </c>
       <c r="J65">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K65">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L65">
-        <v>43.7411406556034</v>
+        <v>45.70737456207696</v>
       </c>
       <c r="M65">
-        <v>48.01975277651679</v>
+        <v>50.11087431035115</v>
       </c>
       <c r="N65">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O65">
         <v>48</v>
@@ -3087,10 +3087,10 @@
         <v>138</v>
       </c>
       <c r="Q65">
-        <v>4.691370139023093</v>
+        <v>4.749660743938463</v>
       </c>
       <c r="R65">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -3098,34 +3098,34 @@
         <v>82</v>
       </c>
       <c r="B66">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C66">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D66">
-        <v>37.7154664379229</v>
+        <v>40.78573204861213</v>
       </c>
       <c r="E66">
-        <v>44.15437607945402</v>
+        <v>46.06532275341402</v>
       </c>
       <c r="F66">
-        <v>44.06412561766126</v>
+        <v>45.98591334391813</v>
       </c>
       <c r="G66">
-        <v>44.06412561766126</v>
+        <v>45.98591334391813</v>
       </c>
       <c r="H66">
-        <v>44.27103420617119</v>
+        <v>46.18377845032015</v>
       </c>
       <c r="I66">
-        <v>44.12667575121326</v>
+        <v>46.03969073390476</v>
       </c>
       <c r="P66" t="s">
         <v>139</v>
       </c>
       <c r="Q66">
-        <v>6.846675751213262</v>
+        <v>5.689690733904762</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -3133,22 +3133,22 @@
         <v>83</v>
       </c>
       <c r="F67">
-        <v>44.15437607945402</v>
+        <v>46.06532275341402</v>
       </c>
       <c r="J67">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K67">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L67">
-        <v>44.27103420617119</v>
+        <v>46.18377845032015</v>
       </c>
       <c r="M67">
-        <v>48.05334700905577</v>
+        <v>50.14446854289013</v>
       </c>
       <c r="N67">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O67">
         <v>48</v>
@@ -3157,10 +3157,10 @@
         <v>138</v>
       </c>
       <c r="Q67">
-        <v>4.149814062147065</v>
+        <v>4.329988922021428</v>
       </c>
       <c r="R67">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3168,34 +3168,34 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C68">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D68">
-        <v>37.74884277037437</v>
+        <v>40.81914780078587</v>
       </c>
       <c r="E68">
-        <v>44.64976455398312</v>
+        <v>46.47201625639076</v>
       </c>
       <c r="F68">
-        <v>44.61226293905209</v>
+        <v>46.41146476758518</v>
       </c>
       <c r="G68">
-        <v>44.61226293905209</v>
+        <v>46.41146476758518</v>
       </c>
       <c r="H68">
-        <v>44.6926277823914</v>
+        <v>46.49661298618816</v>
       </c>
       <c r="I68">
-        <v>44.66659646324476</v>
+        <v>46.47947868906446</v>
       </c>
       <c r="P68" t="s">
         <v>139</v>
       </c>
       <c r="Q68">
-        <v>7.386596463244757</v>
+        <v>6.129478689064463</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -3203,22 +3203,22 @@
         <v>85</v>
       </c>
       <c r="F69">
-        <v>44.64976455398312</v>
+        <v>46.47201625639076</v>
       </c>
       <c r="J69">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K69">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L69">
-        <v>44.6926277823914</v>
+        <v>46.49661298618816</v>
       </c>
       <c r="M69">
-        <v>48.08671238176462</v>
+        <v>50.17783391559898</v>
       </c>
       <c r="N69">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O69">
         <v>48</v>
@@ -3227,10 +3227,10 @@
         <v>138</v>
       </c>
       <c r="Q69">
-        <v>3.654425587617965</v>
+        <v>3.923295419044685</v>
       </c>
       <c r="R69">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -3238,34 +3238,34 @@
         <v>86</v>
       </c>
       <c r="B70">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C70">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D70">
-        <v>37.78225852254811</v>
+        <v>40.85275022005392</v>
       </c>
       <c r="E70">
-        <v>44.92932497378222</v>
+        <v>46.84147253487586</v>
       </c>
       <c r="F70">
-        <v>44.89061301108158</v>
+        <v>46.753950076137</v>
       </c>
       <c r="G70">
-        <v>44.89061301108158</v>
+        <v>46.753950076137</v>
       </c>
       <c r="H70">
-        <v>45.14872299490654</v>
+        <v>46.8846863182227</v>
       </c>
       <c r="I70">
-        <v>44.96138505902088</v>
+        <v>46.82779937215309</v>
       </c>
       <c r="P70" t="s">
         <v>139</v>
       </c>
       <c r="Q70">
-        <v>7.681385059020883</v>
+        <v>6.477799372153093</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -3273,22 +3273,22 @@
         <v>87</v>
       </c>
       <c r="F71">
-        <v>44.92932497378222</v>
+        <v>46.84147253487586</v>
       </c>
       <c r="J71">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K71">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L71">
-        <v>45.14872299490654</v>
+        <v>46.8846863182227</v>
       </c>
       <c r="M71">
-        <v>48.12031527082324</v>
+        <v>50.2114368046576</v>
       </c>
       <c r="N71">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O71">
         <v>48</v>
@@ -3297,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="Q71">
-        <v>3.374865167818868</v>
+        <v>3.553839140559582</v>
       </c>
       <c r="R71">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3308,34 +3308,34 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C72">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D72">
-        <v>37.81586094181616</v>
+        <v>40.88624443680137</v>
       </c>
       <c r="E72">
-        <v>45.36485343208291</v>
+        <v>47.18618576768569</v>
       </c>
       <c r="F72">
-        <v>45.34904126769855</v>
+        <v>47.1201572357594</v>
       </c>
       <c r="G72">
-        <v>45.34904126769855</v>
+        <v>47.1201572357594</v>
       </c>
       <c r="H72">
-        <v>45.52059191356538</v>
+        <v>47.34124092003495</v>
       </c>
       <c r="I72">
-        <v>45.39221953162754</v>
+        <v>47.16370517112965</v>
       </c>
       <c r="P72" t="s">
         <v>139</v>
       </c>
       <c r="Q72">
-        <v>8.112219531627538</v>
+        <v>6.813705171129648</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3343,22 +3343,22 @@
         <v>89</v>
       </c>
       <c r="F73">
-        <v>45.36485343208291</v>
+        <v>47.18618576768569</v>
       </c>
       <c r="J73">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K73">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L73">
-        <v>45.52059191356538</v>
+        <v>47.34124092003495</v>
       </c>
       <c r="M73">
-        <v>48.15369820632773</v>
+        <v>50.24481974016209</v>
       </c>
       <c r="N73">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O73">
         <v>48</v>
@@ -3367,10 +3367,10 @@
         <v>138</v>
       </c>
       <c r="Q73">
-        <v>2.939336709518173</v>
+        <v>3.209125907749751</v>
       </c>
       <c r="R73">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3378,34 +3378,34 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C74">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D74">
-        <v>37.84935515856361</v>
+        <v>40.91972837991286</v>
       </c>
       <c r="E74">
-        <v>45.72938094810072</v>
+        <v>47.82123853906768</v>
       </c>
       <c r="F74">
-        <v>45.69201265034593</v>
+        <v>47.7849724424093</v>
       </c>
       <c r="G74">
-        <v>45.69201265034593</v>
+        <v>47.7849724424093</v>
       </c>
       <c r="H74">
-        <v>45.90819194621048</v>
+        <v>48.03926173193265</v>
       </c>
       <c r="I74">
-        <v>45.76373559282889</v>
+        <v>47.85266029234555</v>
       </c>
       <c r="P74" t="s">
         <v>139</v>
       </c>
       <c r="Q74">
-        <v>8.483735592828893</v>
+        <v>7.502660292345546</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3413,22 +3413,22 @@
         <v>91</v>
       </c>
       <c r="F75">
-        <v>45.72938094810072</v>
+        <v>47.82123853906768</v>
       </c>
       <c r="J75">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K75">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L75">
-        <v>45.90819194621048</v>
+        <v>48.03926173193265</v>
       </c>
       <c r="M75">
-        <v>48.18729891030434</v>
+        <v>50.2784204441387</v>
       </c>
       <c r="N75">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O75">
         <v>48</v>
@@ -3437,10 +3437,10 @@
         <v>138</v>
       </c>
       <c r="Q75">
-        <v>2.574809193500364</v>
+        <v>2.574073136367765</v>
       </c>
       <c r="R75">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3448,34 +3448,34 @@
         <v>92</v>
       </c>
       <c r="B76">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C76">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D76">
-        <v>37.88289626288594</v>
+        <v>40.95326948423519</v>
       </c>
       <c r="E76">
-        <v>46.23632902286208</v>
+        <v>48.2652998903239</v>
       </c>
       <c r="F76">
-        <v>46.15425451866653</v>
+        <v>48.24900103671882</v>
       </c>
       <c r="G76">
-        <v>46.15425451866653</v>
+        <v>48.24900103671882</v>
       </c>
       <c r="H76">
-        <v>46.39243168346258</v>
+        <v>48.38240362891405</v>
       </c>
       <c r="I76">
-        <v>46.22426854181001</v>
+        <v>48.30924168721428</v>
       </c>
       <c r="P76" t="s">
         <v>139</v>
       </c>
       <c r="Q76">
-        <v>8.944268541810004</v>
+        <v>7.959241687214281</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3483,22 +3483,22 @@
         <v>93</v>
       </c>
       <c r="F77">
-        <v>46.23632902286208</v>
+        <v>48.2652998903239</v>
       </c>
       <c r="J77">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K77">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L77">
-        <v>46.39243168346258</v>
+        <v>48.38240362891405</v>
       </c>
       <c r="M77">
-        <v>48.22070598429392</v>
+        <v>50.31182751812828</v>
       </c>
       <c r="N77">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O77">
         <v>48</v>
@@ -3507,10 +3507,10 @@
         <v>138</v>
       </c>
       <c r="Q77">
-        <v>2.067861118739003</v>
+        <v>2.130011785111549</v>
       </c>
       <c r="R77">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3518,22 +3518,22 @@
         <v>94</v>
       </c>
       <c r="F78">
-        <v>46.6124486246163</v>
+        <v>48.86542053975761</v>
       </c>
       <c r="J78">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K78">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L78">
-        <v>46.87298798839509</v>
+        <v>48.98180738111557</v>
       </c>
       <c r="M78">
-        <v>48.25406942944593</v>
+        <v>50.34519096328029</v>
       </c>
       <c r="N78">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O78">
         <v>48</v>
@@ -3542,10 +3542,10 @@
         <v>138</v>
       </c>
       <c r="Q78">
-        <v>1.691741516984784</v>
+        <v>1.529891135677836</v>
       </c>
       <c r="R78">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -3553,34 +3553,34 @@
         <v>95</v>
       </c>
       <c r="B79">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C79">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D79">
-        <v>37.91624547546174</v>
+        <v>40.98661869681099</v>
       </c>
       <c r="E79">
-        <v>46.6124486246163</v>
+        <v>48.86542053975761</v>
       </c>
       <c r="F79">
-        <v>46.58937461861353</v>
+        <v>48.79300299773951</v>
       </c>
       <c r="G79">
-        <v>46.58937461861353</v>
+        <v>48.79300299773951</v>
       </c>
       <c r="H79">
-        <v>46.87298798839509</v>
+        <v>48.98180738111557</v>
       </c>
       <c r="I79">
-        <v>46.6465835103368</v>
+        <v>48.84593880806356</v>
       </c>
       <c r="P79" t="s">
         <v>139</v>
       </c>
       <c r="Q79">
-        <v>9.366583510336802</v>
+        <v>8.495938808063556</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3588,34 +3588,34 @@
         <v>96</v>
       </c>
       <c r="B80">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="C80">
-        <v>37.28</v>
+        <v>40.35</v>
       </c>
       <c r="D80">
-        <v>37.94974108034909</v>
+        <v>41.02011430169834</v>
       </c>
       <c r="E80">
-        <v>47.33493579019584</v>
+        <v>49.37485922015208</v>
       </c>
       <c r="F80">
-        <v>47.31284689750609</v>
+        <v>49.32869117369599</v>
       </c>
       <c r="G80">
-        <v>47.31284689750609</v>
+        <v>49.32869117369599</v>
       </c>
       <c r="H80">
-        <v>47.42861606668601</v>
+        <v>49.63197129390242</v>
       </c>
       <c r="I80">
-        <v>47.38947054344654</v>
+        <v>49.40194106808677</v>
       </c>
       <c r="P80" t="s">
         <v>139</v>
       </c>
       <c r="Q80">
-        <v>10.10947054344653</v>
+        <v>9.051941068086769</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3623,22 +3623,22 @@
         <v>97</v>
       </c>
       <c r="F81">
-        <v>47.33493579019584</v>
+        <v>49.37485922015208</v>
       </c>
       <c r="J81">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="K81">
-        <v>30.93273520494856</v>
+        <v>15.82967544515845</v>
       </c>
       <c r="L81">
-        <v>47.42861606668601</v>
+        <v>49.63197129390242</v>
       </c>
       <c r="M81">
-        <v>48.28752347493442</v>
+        <v>50.37864500876878</v>
       </c>
       <c r="N81">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="O81">
         <v>48</v>
@@ -3647,10 +3647,10 @@
         <v>138</v>
       </c>
       <c r="Q81">
-        <v>0.9692543514052474</v>
+        <v>1.020452455283369</v>
       </c>
       <c r="R81">
-        <v>37.64901580269009</v>
+        <v>40.53813058309771</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3658,22 +3658,22 @@
         <v>98</v>
       </c>
       <c r="F82">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
       <c r="J82">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K82">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L82">
-        <v>53.89377362379921</v>
+        <v>51.26005440882737</v>
       </c>
       <c r="M82">
-        <v>63.43230700848621</v>
+        <v>60.41217308756625</v>
       </c>
       <c r="N82">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O82">
         <v>72</v>
@@ -3682,10 +3682,10 @@
         <v>138</v>
       </c>
       <c r="Q82">
-        <v>10.36451866842968</v>
+        <v>9.974203131720799</v>
       </c>
       <c r="R82">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -3693,34 +3693,34 @@
         <v>99</v>
       </c>
       <c r="B83">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C83">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D83">
-        <v>53.49353326507306</v>
+        <v>50.85353326507306</v>
       </c>
       <c r="E83">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
       <c r="F83">
-        <v>53.65139107709341</v>
+        <v>51.04777380844513</v>
       </c>
       <c r="G83">
-        <v>53.65139107709341</v>
+        <v>51.04777380844513</v>
       </c>
       <c r="H83">
-        <v>53.89377362379921</v>
+        <v>51.26005440882737</v>
       </c>
       <c r="I83">
-        <v>53.73139993224838</v>
+        <v>51.11026293551475</v>
       </c>
       <c r="P83" t="s">
         <v>139</v>
       </c>
       <c r="Q83">
-        <v>0.2713999322483787</v>
+        <v>0.2902629355147468</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -3728,22 +3728,22 @@
         <v>100</v>
       </c>
       <c r="F84">
-        <v>54.02578675578336</v>
+        <v>51.6173984322674</v>
       </c>
       <c r="J84">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K84">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L84">
-        <v>54.08031455319747</v>
+        <v>51.79517916637096</v>
       </c>
       <c r="M84">
-        <v>63.46573755302614</v>
+        <v>60.44560363210618</v>
       </c>
       <c r="N84">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O84">
         <v>72</v>
@@ -3752,10 +3752,10 @@
         <v>138</v>
       </c>
       <c r="Q84">
-        <v>10.0590731783408</v>
+        <v>9.447327580936786</v>
       </c>
       <c r="R84">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -3763,34 +3763,34 @@
         <v>101</v>
       </c>
       <c r="B85">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C85">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D85">
-        <v>53.52695002125868</v>
+        <v>50.88695002125868</v>
       </c>
       <c r="E85">
-        <v>54.02578675578336</v>
+        <v>51.6173984322674</v>
       </c>
       <c r="F85">
-        <v>53.98902079583337</v>
+        <v>51.53693689244168</v>
       </c>
       <c r="G85">
-        <v>53.98902079583337</v>
+        <v>51.53693689244168</v>
       </c>
       <c r="H85">
-        <v>54.08031455319747</v>
+        <v>51.79517916637096</v>
       </c>
       <c r="I85">
-        <v>54.03781337774782</v>
+        <v>51.59616059920838</v>
       </c>
       <c r="P85" t="s">
         <v>139</v>
       </c>
       <c r="Q85">
-        <v>0.5778133777478232</v>
+        <v>0.7761605992083815</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3798,22 +3798,22 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>54.33423730632608</v>
+        <v>52.16351755081786</v>
       </c>
       <c r="J86">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K86">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L86">
-        <v>54.46881878428731</v>
+        <v>52.232794109635</v>
       </c>
       <c r="M86">
-        <v>63.49925148194093</v>
+        <v>60.47911756102097</v>
       </c>
       <c r="N86">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O86">
         <v>72</v>
@@ -3822,10 +3822,10 @@
         <v>138</v>
       </c>
       <c r="Q86">
-        <v>9.750622627798073</v>
+        <v>8.901208462386322</v>
       </c>
       <c r="R86">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -3833,34 +3833,34 @@
         <v>103</v>
       </c>
       <c r="B87">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C87">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D87">
-        <v>53.56039679706663</v>
+        <v>50.92039679706663</v>
       </c>
       <c r="E87">
-        <v>54.33423730632608</v>
+        <v>52.16351755081786</v>
       </c>
       <c r="F87">
-        <v>54.30334744951517</v>
+        <v>52.08486714441958</v>
       </c>
       <c r="G87">
-        <v>54.30334744951517</v>
+        <v>52.08486714441958</v>
       </c>
       <c r="H87">
-        <v>54.46881878428731</v>
+        <v>52.232794109635</v>
       </c>
       <c r="I87">
-        <v>54.34499981283932</v>
+        <v>52.13119051921002</v>
       </c>
       <c r="P87" t="s">
         <v>139</v>
       </c>
       <c r="Q87">
-        <v>0.8849998128393182</v>
+        <v>1.311190519210015</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -3868,22 +3868,22 @@
         <v>104</v>
       </c>
       <c r="F88">
-        <v>54.78327986679134</v>
+        <v>52.44006950206234</v>
       </c>
       <c r="J88">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K88">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L88">
-        <v>55.02717097268931</v>
+        <v>52.68578305606152</v>
       </c>
       <c r="M88">
-        <v>63.53280182445471</v>
+        <v>60.51266790353475</v>
       </c>
       <c r="N88">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O88">
         <v>72</v>
@@ -3892,10 +3892,10 @@
         <v>138</v>
       </c>
       <c r="Q88">
-        <v>9.301580067332814</v>
+        <v>8.624656511141843</v>
       </c>
       <c r="R88">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -3903,34 +3903,34 @@
         <v>105</v>
       </c>
       <c r="B89">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C89">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D89">
-        <v>53.59384190828526</v>
+        <v>50.95384190828526</v>
       </c>
       <c r="E89">
-        <v>54.78327986679134</v>
+        <v>52.44006950206234</v>
       </c>
       <c r="F89">
-        <v>54.72594973447788</v>
+        <v>52.38439801493535</v>
       </c>
       <c r="G89">
-        <v>54.72594973447788</v>
+        <v>52.38439801493535</v>
       </c>
       <c r="H89">
-        <v>55.02717097268931</v>
+        <v>52.68578305606152</v>
       </c>
       <c r="I89">
-        <v>54.79101786014947</v>
+        <v>52.44888058453934</v>
       </c>
       <c r="P89" t="s">
         <v>139</v>
       </c>
       <c r="Q89">
-        <v>1.331017860149466</v>
+        <v>1.628880584539338</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -3938,22 +3938,22 @@
         <v>106</v>
       </c>
       <c r="F90">
-        <v>55.41644397744182</v>
+        <v>52.97385942359006</v>
       </c>
       <c r="J90">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K90">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L90">
-        <v>55.61859896416146</v>
+        <v>53.16293243437158</v>
       </c>
       <c r="M90">
-        <v>63.56631620074783</v>
+        <v>60.54618227982787</v>
       </c>
       <c r="N90">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O90">
         <v>72</v>
@@ -3962,10 +3962,10 @@
         <v>138</v>
       </c>
       <c r="Q90">
-        <v>8.668415956682331</v>
+        <v>8.090866589614123</v>
       </c>
       <c r="R90">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -3973,34 +3973,34 @@
         <v>107</v>
       </c>
       <c r="B91">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C91">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D91">
-        <v>53.62725736806374</v>
+        <v>50.98725736806374</v>
       </c>
       <c r="E91">
-        <v>55.41644397744182</v>
+        <v>52.97385942359006</v>
       </c>
       <c r="F91">
-        <v>55.34559876340197</v>
+        <v>52.89601775844337</v>
       </c>
       <c r="G91">
-        <v>55.34559876340197</v>
+        <v>52.89601775844337</v>
       </c>
       <c r="H91">
-        <v>55.61859896416146</v>
+        <v>53.16293243437158</v>
       </c>
       <c r="I91">
-        <v>55.38532330113035</v>
+        <v>52.9419411733378</v>
       </c>
       <c r="P91" t="s">
         <v>139</v>
       </c>
       <c r="Q91">
-        <v>1.925323301130348</v>
+        <v>2.121941173337802</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4008,34 +4008,34 @@
         <v>108</v>
       </c>
       <c r="B92">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C92">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D92">
-        <v>53.66062605911903</v>
+        <v>51.02062605911903</v>
       </c>
       <c r="E92">
-        <v>55.9161360346999</v>
+        <v>53.54473012355427</v>
       </c>
       <c r="F92">
-        <v>55.87573178814623</v>
+        <v>53.51053550281538</v>
       </c>
       <c r="G92">
-        <v>55.87573178814623</v>
+        <v>53.51053550281538</v>
       </c>
       <c r="H92">
-        <v>56.13831669766235</v>
+        <v>53.75589730682237</v>
       </c>
       <c r="I92">
-        <v>55.94343825743823</v>
+        <v>53.58473767654024</v>
       </c>
       <c r="P92" t="s">
         <v>139</v>
       </c>
       <c r="Q92">
-        <v>2.48343825743823</v>
+        <v>2.764737676540243</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -4043,22 +4043,22 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>55.9161360346999</v>
+        <v>53.54473012355427</v>
       </c>
       <c r="J93">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K93">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L93">
-        <v>56.13831669766235</v>
+        <v>53.75589730682237</v>
       </c>
       <c r="M93">
-        <v>63.59985904330452</v>
+        <v>60.57972512238456</v>
       </c>
       <c r="N93">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O93">
         <v>72</v>
@@ -4067,10 +4067,10 @@
         <v>138</v>
       </c>
       <c r="Q93">
-        <v>8.168723899424258</v>
+        <v>7.51999588964992</v>
       </c>
       <c r="R93">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -4078,34 +4078,34 @@
         <v>110</v>
       </c>
       <c r="B94">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C94">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D94">
-        <v>53.69422060458312</v>
+        <v>51.05407618310063</v>
       </c>
       <c r="E94">
-        <v>56.62433453639465</v>
+        <v>54.16650021269484</v>
       </c>
       <c r="F94">
-        <v>56.53790645349546</v>
+        <v>54.08315458292128</v>
       </c>
       <c r="G94">
-        <v>56.53790645349546</v>
+        <v>54.08315458292128</v>
       </c>
       <c r="H94">
-        <v>56.83152432064723</v>
+        <v>54.39751172941953</v>
       </c>
       <c r="I94">
-        <v>56.60439199350532</v>
+        <v>54.15102796106981</v>
       </c>
       <c r="P94" t="s">
         <v>139</v>
       </c>
       <c r="Q94">
-        <v>3.144391993505323</v>
+        <v>3.331027961069815</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4113,22 +4113,22 @@
         <v>111</v>
       </c>
       <c r="F95">
-        <v>56.62433453639465</v>
+        <v>54.16650021269484</v>
       </c>
       <c r="J95">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K95">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L95">
-        <v>56.83152432064723</v>
+        <v>54.39751172941953</v>
       </c>
       <c r="M95">
-        <v>63.63345615767471</v>
+        <v>60.61332223675475</v>
       </c>
       <c r="N95">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O95">
         <v>72</v>
@@ -4137,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="Q95">
-        <v>7.460525397729505</v>
+        <v>6.898225800509351</v>
       </c>
       <c r="R95">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -4148,34 +4148,34 @@
         <v>112</v>
       </c>
       <c r="B96">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C96">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D96">
-        <v>53.727724914282</v>
+        <v>51.08766029575223</v>
       </c>
       <c r="E96">
-        <v>57.12627017115993</v>
+        <v>54.79532020759324</v>
       </c>
       <c r="F96">
-        <v>57.09341049449765</v>
+        <v>54.70465651520664</v>
       </c>
       <c r="G96">
-        <v>57.09341049449765</v>
+        <v>54.70465651520664</v>
       </c>
       <c r="H96">
-        <v>57.16334509722834</v>
+        <v>54.94236953052879</v>
       </c>
       <c r="I96">
-        <v>57.15821907955264</v>
+        <v>54.76988686466193</v>
       </c>
       <c r="P96" t="s">
         <v>139</v>
       </c>
       <c r="Q96">
-        <v>3.698219079552636</v>
+        <v>3.949886864661927</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4183,22 +4183,22 @@
         <v>113</v>
       </c>
       <c r="F97">
-        <v>57.12627017115993</v>
+        <v>54.79532020759324</v>
       </c>
       <c r="J97">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K97">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L97">
-        <v>57.16334509722834</v>
+        <v>54.94236953052879</v>
       </c>
       <c r="M97">
-        <v>63.66684486897537</v>
+        <v>60.64671094805541</v>
       </c>
       <c r="N97">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O97">
         <v>72</v>
@@ -4207,10 +4207,10 @@
         <v>138</v>
       </c>
       <c r="Q97">
-        <v>6.958589762964223</v>
+        <v>6.269405805610951</v>
       </c>
       <c r="R97">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -4218,34 +4218,34 @@
         <v>114</v>
       </c>
       <c r="B98">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C98">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D98">
-        <v>53.76121045239676</v>
+        <v>51.12107722627294</v>
       </c>
       <c r="E98">
-        <v>57.5683465264996</v>
+        <v>55.09973787218689</v>
       </c>
       <c r="F98">
-        <v>57.54413570596277</v>
+        <v>55.05567338040161</v>
       </c>
       <c r="G98">
-        <v>57.54413570596277</v>
+        <v>55.05567338040161</v>
       </c>
       <c r="H98">
-        <v>57.59254719508539</v>
+        <v>55.32352818201758</v>
       </c>
       <c r="I98">
-        <v>57.61021940771294</v>
+        <v>55.11943023690058</v>
       </c>
       <c r="P98" t="s">
         <v>139</v>
       </c>
       <c r="Q98">
-        <v>4.150219407712939</v>
+        <v>4.299430236900577</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -4253,22 +4253,22 @@
         <v>115</v>
       </c>
       <c r="F99">
-        <v>57.5683465264996</v>
+        <v>55.09973787218689</v>
       </c>
       <c r="J99">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K99">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L99">
-        <v>57.59254719508539</v>
+        <v>55.32352818201758</v>
       </c>
       <c r="M99">
-        <v>63.70018386342463</v>
+        <v>60.68004994250467</v>
       </c>
       <c r="N99">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O99">
         <v>72</v>
@@ -4277,10 +4277,10 @@
         <v>138</v>
       </c>
       <c r="Q99">
-        <v>6.516513407624558</v>
+        <v>5.964988141017294</v>
       </c>
       <c r="R99">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -4288,22 +4288,22 @@
         <v>116</v>
       </c>
       <c r="F100">
-        <v>57.89331905221647</v>
+        <v>55.57305088773145</v>
       </c>
       <c r="J100">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K100">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L100">
-        <v>58.15141376325012</v>
+        <v>55.71435881456583</v>
       </c>
       <c r="M100">
-        <v>63.73355952518735</v>
+        <v>60.71342560426739</v>
       </c>
       <c r="N100">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O100">
         <v>72</v>
@@ -4312,10 +4312,10 @@
         <v>138</v>
       </c>
       <c r="Q100">
-        <v>6.191540881907684</v>
+        <v>5.491675125472739</v>
       </c>
       <c r="R100">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -4323,34 +4323,34 @@
         <v>117</v>
       </c>
       <c r="B101">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C101">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D101">
-        <v>53.79454389849112</v>
+        <v>51.15441067236731</v>
       </c>
       <c r="E101">
-        <v>57.89331905221647</v>
+        <v>55.57305088773145</v>
       </c>
       <c r="F101">
-        <v>57.83887696234861</v>
+        <v>55.50260293279394</v>
       </c>
       <c r="G101">
-        <v>57.83887696234861</v>
+        <v>55.50260293279394</v>
       </c>
       <c r="H101">
-        <v>58.15141376325012</v>
+        <v>55.71435881456583</v>
       </c>
       <c r="I101">
-        <v>57.89819799736978</v>
+        <v>55.56482964742338</v>
       </c>
       <c r="P101" t="s">
         <v>139</v>
       </c>
       <c r="Q101">
-        <v>4.438197997369777</v>
+        <v>4.74482964742338</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -4358,34 +4358,34 @@
         <v>118</v>
       </c>
       <c r="B102">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C102">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D102">
-        <v>53.82795693007914</v>
+        <v>51.18782370395532</v>
       </c>
       <c r="E102">
-        <v>58.563345803122</v>
+        <v>56.01705937175993</v>
       </c>
       <c r="F102">
-        <v>58.5246129331542</v>
+        <v>55.97848439605249</v>
       </c>
       <c r="G102">
-        <v>58.5246129331542</v>
+        <v>55.97848439605249</v>
       </c>
       <c r="H102">
-        <v>58.67855210044097</v>
+        <v>56.25547316654337</v>
       </c>
       <c r="I102">
-        <v>58.58174443729013</v>
+        <v>56.02677847497567</v>
       </c>
       <c r="P102" t="s">
         <v>139</v>
       </c>
       <c r="Q102">
-        <v>5.121744437290126</v>
+        <v>5.206778474975671</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -4393,22 +4393,22 @@
         <v>119</v>
       </c>
       <c r="F103">
-        <v>58.563345803122</v>
+        <v>56.01705937175993</v>
       </c>
       <c r="J103">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K103">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L103">
-        <v>58.67855210044097</v>
+        <v>56.25547316654337</v>
       </c>
       <c r="M103">
-        <v>63.76692791990259</v>
+        <v>60.74679399898262</v>
       </c>
       <c r="N103">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O103">
         <v>72</v>
@@ -4417,10 +4417,10 @@
         <v>138</v>
       </c>
       <c r="Q103">
-        <v>5.521514131002149</v>
+        <v>5.047666641444252</v>
       </c>
       <c r="R103">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -4428,22 +4428,22 @@
         <v>120</v>
       </c>
       <c r="F104">
-        <v>59.1783409788564</v>
+        <v>56.42776925992085</v>
       </c>
       <c r="J104">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K104">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L104">
-        <v>59.37654913918509</v>
+        <v>56.62999032516257</v>
       </c>
       <c r="M104">
-        <v>63.80044721402609</v>
+        <v>60.78031329310613</v>
       </c>
       <c r="N104">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O104">
         <v>72</v>
@@ -4452,10 +4452,10 @@
         <v>138</v>
       </c>
       <c r="Q104">
-        <v>4.906518955267757</v>
+        <v>4.636956753283336</v>
       </c>
       <c r="R104">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -4463,34 +4463,34 @@
         <v>121</v>
       </c>
       <c r="B105">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C105">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D105">
-        <v>53.86140967678747</v>
+        <v>51.22127645066365</v>
       </c>
       <c r="E105">
-        <v>59.1783409788564</v>
+        <v>56.42776925992085</v>
       </c>
       <c r="F105">
-        <v>59.12275979120295</v>
+        <v>56.36443785812075</v>
       </c>
       <c r="G105">
-        <v>59.12275979120295</v>
+        <v>56.36443785812075</v>
       </c>
       <c r="H105">
-        <v>59.37654913918509</v>
+        <v>56.62999032516257</v>
       </c>
       <c r="I105">
-        <v>59.16313408776322</v>
+        <v>56.40327079552395</v>
       </c>
       <c r="P105" t="s">
         <v>139</v>
       </c>
       <c r="Q105">
-        <v>5.703134087763218</v>
+        <v>5.583270795523951</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -4498,34 +4498,34 @@
         <v>122</v>
       </c>
       <c r="B106">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C106">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D106">
-        <v>53.89490411700447</v>
+        <v>51.25477089088065</v>
       </c>
       <c r="E106">
-        <v>59.66308110433919</v>
+        <v>56.77265605148716</v>
       </c>
       <c r="F106">
-        <v>59.61686274213912</v>
+        <v>56.73352113824357</v>
       </c>
       <c r="G106">
-        <v>59.61686274213912</v>
+        <v>56.73352113824357</v>
       </c>
       <c r="H106">
-        <v>59.91524039213028</v>
+        <v>56.83074758747845</v>
       </c>
       <c r="I106">
-        <v>59.69065225728392</v>
+        <v>56.80801557374024</v>
       </c>
       <c r="P106" t="s">
         <v>139</v>
       </c>
       <c r="Q106">
-        <v>6.230652257283914</v>
+        <v>5.988015573740242</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -4533,22 +4533,22 @@
         <v>123</v>
       </c>
       <c r="F107">
-        <v>59.66308110433919</v>
+        <v>56.77265605148716</v>
       </c>
       <c r="J107">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K107">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L107">
-        <v>59.91524039213028</v>
+        <v>56.83074758747845</v>
       </c>
       <c r="M107">
-        <v>63.83393720557663</v>
+        <v>60.81380328465667</v>
       </c>
       <c r="N107">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O107">
         <v>72</v>
@@ -4557,10 +4557,10 @@
         <v>138</v>
       </c>
       <c r="Q107">
-        <v>4.421778829784962</v>
+        <v>4.292069961717026</v>
       </c>
       <c r="R107">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -4568,34 +4568,34 @@
         <v>124</v>
       </c>
       <c r="B108">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C108">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D108">
-        <v>53.92836661372398</v>
+        <v>51.28828608688723</v>
       </c>
       <c r="E108">
-        <v>60.14457274287123</v>
+        <v>57.15818562860032</v>
       </c>
       <c r="F108">
-        <v>60.12852202127576</v>
+        <v>57.13691176934607</v>
       </c>
       <c r="G108">
-        <v>60.12852202127576</v>
+        <v>57.13691176934607</v>
       </c>
       <c r="H108">
-        <v>60.32875274316696</v>
+        <v>57.41596880666608</v>
       </c>
       <c r="I108">
-        <v>60.16572079834281</v>
+        <v>57.17971055939959</v>
       </c>
       <c r="P108" t="s">
         <v>139</v>
       </c>
       <c r="Q108">
-        <v>6.70572079834281</v>
+        <v>6.359710559399588</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -4603,22 +4603,22 @@
         <v>125</v>
       </c>
       <c r="F109">
-        <v>60.14457274287123</v>
+        <v>57.15818562860032</v>
       </c>
       <c r="J109">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K109">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L109">
-        <v>60.32875274316696</v>
+        <v>57.41596880666608</v>
       </c>
       <c r="M109">
-        <v>63.86733108461577</v>
+        <v>60.84719716369581</v>
       </c>
       <c r="N109">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O109">
         <v>72</v>
@@ -4627,10 +4627,10 @@
         <v>138</v>
       </c>
       <c r="Q109">
-        <v>3.940287191252921</v>
+        <v>3.906540384603865</v>
       </c>
       <c r="R109">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -4638,22 +4638,22 @@
         <v>126</v>
       </c>
       <c r="F110">
-        <v>60.63733344310963</v>
+        <v>57.75876546863564</v>
       </c>
       <c r="J110">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K110">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L110">
-        <v>60.79319281355193</v>
+        <v>57.93744357171016</v>
       </c>
       <c r="M110">
-        <v>63.90085871377445</v>
+        <v>60.88072479285449</v>
       </c>
       <c r="N110">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O110">
         <v>72</v>
@@ -4662,10 +4662,10 @@
         <v>138</v>
       </c>
       <c r="Q110">
-        <v>3.447526491014528</v>
+        <v>3.305960544568542</v>
       </c>
       <c r="R110">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -4673,34 +4673,34 @@
         <v>127</v>
       </c>
       <c r="B111">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C111">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D111">
-        <v>53.96182276922379</v>
+        <v>51.32174224238704</v>
       </c>
       <c r="E111">
-        <v>60.63733344310963</v>
+        <v>57.75876546863564</v>
       </c>
       <c r="F111">
-        <v>60.62261340247433</v>
+        <v>57.7141307004258</v>
       </c>
       <c r="G111">
-        <v>60.62261340247433</v>
+        <v>57.7141307004258</v>
       </c>
       <c r="H111">
-        <v>60.79319281355193</v>
+        <v>57.93744357171016</v>
       </c>
       <c r="I111">
-        <v>60.68358812282212</v>
+        <v>57.77385598701168</v>
       </c>
       <c r="P111" t="s">
         <v>139</v>
       </c>
       <c r="Q111">
-        <v>7.223588122822122</v>
+        <v>6.953855987011679</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -4708,34 +4708,34 @@
         <v>128</v>
       </c>
       <c r="B112">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C112">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D112">
-        <v>53.99528754316432</v>
+        <v>51.35513493722065</v>
       </c>
       <c r="E112">
-        <v>61.15400805591982</v>
+        <v>58.50524063733395</v>
       </c>
       <c r="F112">
-        <v>61.07921856762675</v>
+        <v>58.42657763009265</v>
       </c>
       <c r="G112">
-        <v>61.07921856762675</v>
+        <v>58.42657763009265</v>
       </c>
       <c r="H112">
-        <v>61.30731311492278</v>
+        <v>58.59651909462576</v>
       </c>
       <c r="I112">
-        <v>61.12435211349095</v>
+        <v>58.4722845518578</v>
       </c>
       <c r="P112" t="s">
         <v>139</v>
       </c>
       <c r="Q112">
-        <v>7.664352113490949</v>
+        <v>7.652284551857804</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -4743,22 +4743,22 @@
         <v>129</v>
       </c>
       <c r="F113">
-        <v>61.15400805591982</v>
+        <v>58.50524063733395</v>
       </c>
       <c r="J113">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K113">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L113">
-        <v>61.30731311492278</v>
+        <v>58.59651909462576</v>
       </c>
       <c r="M113">
-        <v>63.93440507435732</v>
+        <v>60.91427115343736</v>
       </c>
       <c r="N113">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O113">
         <v>72</v>
@@ -4767,10 +4767,10 @@
         <v>138</v>
       </c>
       <c r="Q113">
-        <v>2.930851878204336</v>
+        <v>2.559485375870238</v>
       </c>
       <c r="R113">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -4778,34 +4778,34 @@
         <v>130</v>
       </c>
       <c r="B114">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C114">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D114">
-        <v>54.02866801299659</v>
+        <v>51.38859971116118</v>
       </c>
       <c r="E114">
-        <v>61.63820646199055</v>
+        <v>58.74314261897852</v>
       </c>
       <c r="F114">
-        <v>61.55007893221782</v>
+        <v>58.68260355614795</v>
       </c>
       <c r="G114">
-        <v>61.55007893221782</v>
+        <v>58.68260355614795</v>
       </c>
       <c r="H114">
-        <v>61.78175844053822</v>
+        <v>58.84390111397151</v>
       </c>
       <c r="I114">
-        <v>61.6010718603446</v>
+        <v>58.73193359971845</v>
       </c>
       <c r="P114" t="s">
         <v>139</v>
       </c>
       <c r="Q114">
-        <v>8.141071860344603</v>
+        <v>7.911933599718445</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4813,22 +4813,22 @@
         <v>131</v>
       </c>
       <c r="F115">
-        <v>61.63820646199055</v>
+        <v>58.74314261897852</v>
       </c>
       <c r="J115">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K115">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L115">
-        <v>61.78175844053822</v>
+        <v>58.84390111397151</v>
       </c>
       <c r="M115">
-        <v>63.96778501578603</v>
+        <v>60.94765109486607</v>
       </c>
       <c r="N115">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O115">
         <v>72</v>
@@ -4837,10 +4837,10 @@
         <v>138</v>
       </c>
       <c r="Q115">
-        <v>2.446653472133605</v>
+        <v>2.321583394225669</v>
       </c>
       <c r="R115">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4848,34 +4848,34 @@
         <v>132</v>
       </c>
       <c r="B116">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C116">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D116">
-        <v>54.0621771632343</v>
+        <v>51.42218337250169</v>
       </c>
       <c r="E116">
-        <v>62.04668153797438</v>
+        <v>59.15201971120838</v>
       </c>
       <c r="F116">
-        <v>61.98246743003202</v>
+        <v>59.10064410833554</v>
       </c>
       <c r="G116">
-        <v>61.98246743003202</v>
+        <v>59.10064410833554</v>
       </c>
       <c r="H116">
-        <v>62.10571458872194</v>
+        <v>59.304197580376</v>
       </c>
       <c r="I116">
-        <v>62.0486465815234</v>
+        <v>59.16759973746998</v>
       </c>
       <c r="P116" t="s">
         <v>139</v>
       </c>
       <c r="Q116">
-        <v>8.588646581523399</v>
+        <v>8.347599737469977</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4883,22 +4883,22 @@
         <v>133</v>
       </c>
       <c r="F117">
-        <v>62.04668153797438</v>
+        <v>59.15201971120838</v>
       </c>
       <c r="J117">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K117">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L117">
-        <v>62.10571458872194</v>
+        <v>59.304197580376</v>
       </c>
       <c r="M117">
-        <v>64.00128702897878</v>
+        <v>60.98115310805882</v>
       </c>
       <c r="N117">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O117">
         <v>72</v>
@@ -4907,10 +4907,10 @@
         <v>138</v>
       </c>
       <c r="Q117">
-        <v>2.038178396149775</v>
+        <v>1.912706301995804</v>
       </c>
       <c r="R117">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4918,34 +4918,34 @@
         <v>134</v>
       </c>
       <c r="B118">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C118">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D118">
-        <v>54.09560360441636</v>
+        <v>51.45556384233396</v>
       </c>
       <c r="E118">
-        <v>62.43529118417764</v>
+        <v>59.57685216752048</v>
       </c>
       <c r="F118">
-        <v>62.40282993785475</v>
+        <v>59.50814895744041</v>
       </c>
       <c r="G118">
-        <v>62.40282993785475</v>
+        <v>59.50814895744041</v>
       </c>
       <c r="H118">
-        <v>62.66343641484155</v>
+        <v>59.76523406779889</v>
       </c>
       <c r="I118">
-        <v>62.45671799460244</v>
+        <v>59.5617088681602</v>
       </c>
       <c r="P118" t="s">
         <v>139</v>
       </c>
       <c r="Q118">
-        <v>8.996717994602442</v>
+        <v>8.741708868160202</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4953,22 +4953,22 @@
         <v>135</v>
       </c>
       <c r="F119">
-        <v>62.43529118417764</v>
+        <v>59.57685216752048</v>
       </c>
       <c r="J119">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K119">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L119">
-        <v>62.66343641484155</v>
+        <v>59.76523406779889</v>
       </c>
       <c r="M119">
-        <v>64.03482811943766</v>
+        <v>61.0146941985177</v>
       </c>
       <c r="N119">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O119">
         <v>72</v>
@@ -4977,10 +4977,10 @@
         <v>138</v>
       </c>
       <c r="Q119">
-        <v>1.649568749946511</v>
+        <v>1.487873845683708</v>
       </c>
       <c r="R119">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4988,22 +4988,22 @@
         <v>136</v>
       </c>
       <c r="F120">
-        <v>62.94581605171742</v>
+        <v>60.05910958533718</v>
       </c>
       <c r="J120">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="K120">
-        <v>48.30419014160108</v>
+        <v>50.39531167543544</v>
       </c>
       <c r="L120">
-        <v>63.152757474205</v>
+        <v>60.29355057048497</v>
       </c>
       <c r="M120">
-        <v>64.06819326745749</v>
+        <v>61.04805934653752</v>
       </c>
       <c r="N120">
-        <v>64.08485993412415</v>
+        <v>61.06472601320419</v>
       </c>
       <c r="O120">
         <v>72</v>
@@ -5012,10 +5012,10 @@
         <v>138</v>
       </c>
       <c r="Q120">
-        <v>1.139043882406732</v>
+        <v>1.005616427867011</v>
       </c>
       <c r="R120">
-        <v>53.72034126569447</v>
+        <v>51.09052288148339</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -5023,34 +5023,34 @@
         <v>137</v>
       </c>
       <c r="B121">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="C121">
-        <v>53.46</v>
+        <v>50.82</v>
       </c>
       <c r="D121">
-        <v>54.12914558723234</v>
+        <v>51.48892072998305</v>
       </c>
       <c r="E121">
-        <v>62.94581605171742</v>
+        <v>60.05910958533718</v>
       </c>
       <c r="F121">
-        <v>62.91761641424073</v>
+        <v>60.01154736023216</v>
       </c>
       <c r="G121">
-        <v>62.91761641424073</v>
+        <v>60.01154736023216</v>
       </c>
       <c r="H121">
-        <v>63.152757474205</v>
+        <v>60.29355057048497</v>
       </c>
       <c r="I121">
-        <v>62.96664138343096</v>
+        <v>60.05304359691544</v>
       </c>
       <c r="P121" t="s">
         <v>139</v>
       </c>
       <c r="Q121">
-        <v>9.50664138343096</v>
+        <v>9.233043596915437</v>
       </c>
     </row>
   </sheetData>
